--- a/Project 1/dataset.xlsx
+++ b/Project 1/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Project 1\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA79A9BF-3CA1-4F9E-B8D1-C17B613A8482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32BB322-353B-4F75-A01F-0686FE2D678C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -698,78 +698,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>548508</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67167</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0C10A5-873E-49A5-819F-85042883FE66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7073133" y="2506061"/>
-          <a:ext cx="1347459" cy="275896"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>Watch the video</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="C4:I104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="O7:Q18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3392,7 +3320,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3400,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30372EC4-DDE2-4CB7-AC70-5AB590F93835}">
   <dimension ref="B2:H114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
